--- a/run_stats.xlsx
+++ b/run_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\00_MIK\20200-forbes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{923A9A17-CB10-4C51-92FE-93E8BE6879E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA05D4-9953-4E29-95E9-1A62ED68558A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="11235" windowWidth="29040" windowHeight="15990" xr2:uid="{947CF518-9322-4379-B321-93DEABE60380}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Identity Resolution Method</t>
   </si>
@@ -56,10 +56,37 @@
     <t>#</t>
   </si>
   <si>
-    <t>9 sec</t>
-  </si>
-  <si>
-    <t>Match name only</t>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>FullContact</t>
+  </si>
+  <si>
+    <t>Pre-Processing</t>
+  </si>
+  <si>
+    <t>Lowercase, Normalize Space</t>
+  </si>
+  <si>
+    <t>Blocking</t>
+  </si>
+  <si>
+    <t>Standard Record: First Char</t>
+  </si>
+  <si>
+    <t>Name Jaccard (1.0)</t>
+  </si>
+  <si>
+    <t>Name Equal (1.0)</t>
+  </si>
+  <si>
+    <t>Name Levenshtein (1.0)</t>
+  </si>
+  <si>
+    <t>2 s</t>
+  </si>
+  <si>
+    <t>324 ms</t>
   </si>
 </sst>
 </file>
@@ -83,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,13 +119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -115,16 +136,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,80 +462,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EB1628-6A86-4507-A0A3-5063921BAB7A}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="45.140625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="50.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.78210000000000002</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="3">
         <v>0.86829999999999996</v>
       </c>
-      <c r="F2" s="1">
-        <v>797</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+      <c r="H2" s="3">
+        <v>736</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.38129999999999997</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.55210000000000004</v>
+      </c>
+      <c r="H3" s="3">
+        <v>309</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.66930000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
